--- a/data/output_product_details.xlsx
+++ b/data/output_product_details.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Product Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Phone" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Laptop" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +426,3401 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:DW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Processor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rear Camera</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Front Camera</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Display</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Launch Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Operating System</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Chipset</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Graphics</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RAM Type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Display Type</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Screen Size</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Resolution</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Brightness</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Refresh Rate</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect Ratio</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Pixel Density</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Screen to Body Ratio (calculated)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Screen Protection</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Bezel-less display</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Touch Screen</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>HDR 10 / HDR+ support</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Thickness</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Build Material</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Colours</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Waterproof</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ruggedness</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Camera Setup</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Autofocus</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Flash</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Image Resolution</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Shooting Modes</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Camera Features</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Video Recording</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Video Recording Features</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Removable</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Wireless Charging</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Quick Charging</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>USB Type-C</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Memory</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Expandable Memory</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Storage Type</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>SIM Slot(s)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>SIM Size</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Network Support</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>VoLTE</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>SIM 1</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>SIM 2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Wi-Fi</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Wi-Fi Features</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Wi-Fi Calling</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Bluetooth</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>NFC</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>USB Connectivity</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>FM Radio</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Loudspeaker</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Audio Jack</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Audio Features</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Fingerprint Sensor</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Other Sensors</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Custom UI</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>TalkTime</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>User Available Storage</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>USB OTG</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>SAR Value</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Stereo Speakers</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Fingerprint Sensor Position</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Fingerprint Sensor Type</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Colour(s)</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Display Size</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Display Resolution</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Display Features</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Touchscreen</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Clock-speed</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Graphic Processor</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>RAM type</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>RAM speed</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Slots</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Layout</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>HDD Capacity</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>HDD Speed(RPM)</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>HDD type</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Battery Cell</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Battery type</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Power Supply</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Wireless LAN</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Wi-Fi Version</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Bluetooth Version</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Other Networking Options</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>USB 3.0 slots</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>USB 2.0 slots</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>SD Card Reader</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Headphone Jack</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Microphone Jack</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>VGA Port</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary cam(Rear-facing)</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Speakers</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>In-built Microphone</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Microphone Type</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Pointing Device</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Keyboard</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Fingerprint Scanner</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Warranty</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Lockport</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>Sales Package</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>Dimensions (WxDxH)</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>Operating System Type</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>Audio Solution</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>Sound Technologies</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>Screen to Body Ratio (claimed by the brand)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro Max</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6 GB
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Apple A15 Bionic</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12 MP + 12 MP + 12 MP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 MP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4352 mAh</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7 inches (17.02 cm)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>September 17, 2021 (Official)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>iOS v15</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Apple A15 Bionic</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Hexa Core (3.23 GHz, Dual core, Avalanche + 1.82 GHz, Quad core, Blizzard)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>64 bit</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>5 nm</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Apple GPU (Five-core graphics)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>LPDDR4X</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Super Retina XDR</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>6.7 inches (17.02 cm)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>12 MP f/2.2, Wide Angle, Primary Camera
+(23 mm focal length, 1/3.6" sensor size, Exmor RS)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1000 nits</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>120 Hz</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>19.5:9</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>457 ppi
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>87.55 %</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Yes with notch</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Yes, Capacitive Touchscreen, Multi-touch</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Yes, HDR 10+</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>160.8 mm Compare Size</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>78.1 mm</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>7.6 mm
+Very Good ▾</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>238 grams
+Poor ▾</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Back: Gorilla Glass</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Gold, Silver, Graphite, Sierra Blue. Alpine Green</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Yes, Water resistant (up to 30 minutes in a depth of 6 meter), IP68</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Dust proof</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Yes, Phase Detection autofocus, Dual Pixel autofocus</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Yes, Retina Flash</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>4000 x 3000 Pixels</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Exposure compensation, ISO control</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Continuous Shooting
+High Dynamic Range mode (HDR)
+Burst mode
+Macro Mode</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Digital Zoom
+Auto Flash
+Face detection
+Touch to focus</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>4k @ 24 FPS
+Full HD @ 30 FPS</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Audio Zoom
+Stereo recording</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>4352 mAh</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Li-ion</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Yes, Fast, 20W: 50 % in 30 minutes</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>128 GB
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>NVMe</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Dual SIM, GSM+GSM</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>SIM1: Nano, SIM2: eSIM</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>5G, 4G, 3G, 2G</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>5G Bands:
+FDD N1 / N2 / N3 / N5 / N7 / N8 / N20 / N25 / N28 / N66
+TDD N38 / N40 / N41 / N71 / N77 / N78 / N79
+4G Bands:
+TD-LTE 2600(band 38) / 2300(band 40) / 2500(band 41) / 2100(band 34) / 1900(band 39) / 3500(band 42)
+FD-LTE 2100(band 1) / 1800(band 3) / 2600(band 7) / 900(band 8) / 700(band 28) / 1900(band 2) / 1700(band 4) / 850(band 5) / 700(band 13) / 700(band 17) / 850(band 18) / 850(band 19) / 800(band 20) / 1900(band 25) / 850(band 26)
+3G Bands:
+UMTS 1900 / 2100 / 850 / 900 MHz
+2G Bands:
+GSM 1800 / 1900 / 850 / 900 MHz
+GPRS:
+Available
+EDGE:
+Available</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>4G Bands:
+TD-LTE 2600(band 38) / 2300(band 40) / 2500(band 41) / 2100(band 34) / 1900(band 39) / 3500(band 42)
+FD-LTE 2100(band 1) / 1800(band 3) / 2600(band 7) / 900(band 8) / 700(band 28) / 1900(band 2) / 1700(band 4) / 850(band 5) / 700(band 13) / 700(band 17) / 850(band 18) / 850(band 19) / 800(band 20) / 1900(band 25) / 850(band 26)
+3G Bands:
+UMTS 1900 / 2100 / 850 / 900 MHz
+2G Bands:
+GSM 1800 / 1900 / 850 / 900 MHz
+GPRS:
+Available
+EDGE:
+Available</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Yes, Wi-Fi 6 (802.11 b/g/n/ax) 5GHz, MIMO</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>Mobile Hotspot</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>Yes, v5.0</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Yes with A-GPS, Glonass</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>Mass storage device, USB charging</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Lightning</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Dolby Atmos, Dolby Digital, Dolby Digital Plus</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>Light sensor, Proximity sensor, Accelerometer, Barometer, Compass, Gyroscope</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S21 Ultra</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12 GB
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Samsung Exynos 2100</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108 MP + 10 MP + 10 MP + 12 MP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40 MP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8 inches (17.27 cm)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>January 27, 2021 (Official)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Android v11</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Samsung Exynos 2100</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Octa core (2.9 GHz, Single core, Cortex X1 + 2.8 GHz, Tri core, Cortex A78 + 2.2 GHz, Quad core, Cortex A55)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>64 bit</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>5 nm</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Mali-G78 MP14</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>LPDDR5</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Dynamic AMOLED 2x</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>6.8 inches (17.27 cm)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>40 MP f/2.2, Wide Angle, Primary Camera
+(26 mm focal length, 1/2.8" sensor size, 0.7µm pixel size)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1500 nits</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>120 Hz</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>20:9</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>516 ppi
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>89.44 %</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Corning Gorilla Glass, Glass Victus</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Yes with punch-hole display</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Yes, Capacitive Touchscreen, Multi-touch</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Yes, HDR 10+</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>165.1 mm Compare Size</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>75.6 mm</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>8.9 mm
+Good ▾</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>227 grams
+Poor ▾</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Back: Gorilla Glass</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Phantom Silver, Phantom Black, Phantom Brown</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Yes, Water resistant (up to 30 minutes in a depth of 1.5 meter), IP68</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Dust proof</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Yes, Phase Detection autofocus</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Yes, LED Flash</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>12000 x 9000 Pixels</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Exposure compensation, ISO control</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Continuous Shooting
+High Dynamic Range mode (HDR)</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Digital Zoom
+Auto Flash
+Face detection
+Touch to focus</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>4k @ 30 FPS
+Full HD @ 30 FPS</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Slo-motion
+Video HDR
+Bokeh portrait video
+Video Pro Mode</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>5000 mAh</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Li-ion</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Yes, Fast, 25W</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>256 GB
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>UFS 3.1</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Dual SIM, GSM+GSM</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>SIM1: Nano, SIM2: Nano</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>5G, 4G, 3G, 2G</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>5G Bands:
+FDD N1 / N3 / N5 / N7 / N8 / N20 / N28 / N66
+TDD N38 / N40 / N41 / N77 / N78
+4G Bands:
+TD-LTE 2600(band 38) / 2300(band 40) / 2500(band 41) / 1900(band 39)
+FD-LTE 2100(band 1) / 1800(band 3) / 2600(band 7) / 900(band 8) / 700(band 28) / 1900(band 2) / 1700(band 4) / 850(band 5) / 700(band 13) / 700(band 17) / 850(band 18) / 850(band 19) / 800(band 20) / 1900(band 25) / 850(band 26)
+3G Bands:
+UMTS 1900 / 2100 / 850 / 900 MHz
+2G Bands:
+GSM 1800 / 1900 / 850 / 900 MHz
+GPRS:
+Available
+EDGE:
+Available</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>4G Bands:
+TD-LTE 2600(band 38) / 2300(band 40) / 2500(band 41) / 1900(band 39)
+FD-LTE 2100(band 1) / 1800(band 3) / 2600(band 7) / 900(band 8) / 700(band 28) / 1900(band 2) / 1700(band 4) / 850(band 5) / 700(band 13) / 700(band 17) / 850(band 18) / 850(band 19) / 800(band 20) / 1900(band 25) / 850(band 26)
+3G Bands:
+UMTS 1900 / 2100 / 850 / 900 MHz
+2G Bands:
+GSM 1800 / 1900 / 850 / 900 MHz
+GPRS:
+Available
+EDGE:
+Available</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Yes, Wi-Fi 6 (802.11 a/b/g/n/ac/ax) 5GHz, MIMO</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>Wi-Fi Direct, Mobile Hotspot</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>Yes, v5.2</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>Yes with A-GPS, Glonass</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Mass storage device, USB charging</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>USB Type-C</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>Light sensor, Proximity sensor, Accelerometer, Barometer, Compass, Gyroscope</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>Samsung One UI</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>Up to 41 Hours(4G)</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>Up to 220 GB</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>Head: 0.77 W/kg, Body: 1.02 W/kg</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>On-screen</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>Ultrasonic</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Motorola Edge 20 Pro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8 GB
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Qualcomm Snapdragon 870</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108 MP + 16 MP + 8 MP</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32 MP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4500 mAh</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.7 inches (17.02 cm)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>October 1, 2021 (Official)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Android v11</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Qualcomm Snapdragon 870</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Octa core (3.2 GHz, Single core, Kryo 585 + 2.42 GHz, Tri core, Kryo 585 + 1.8 GHz, Quad core, Kryo 585)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>64 bit</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7 nm</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Adreno 650</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>LPDDR5</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>OLED</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>6.7 inches (17.02 cm)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>32 MP f/2.25, Wide Angle, Primary Camera
+(0.7µm pixel size)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>450 nits</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>144 Hz</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>20:9</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>393 ppi
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>87.49 %</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Corning Gorilla Glass v5</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Yes with punch-hole display</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Yes, Capacitive Touchscreen, Multi-touch</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Yes, HDR 10+</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>163 mm Compare Size</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>76 mm</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>7.9 mm
+Very Good ▾</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>190 grams
+Average ▾</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Back: Gorilla Glass</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Midnight Sky, Iridescent Cloud</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Yes, Splash proof, IP52</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Dust proof</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Yes, Phase Detection autofocus</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Yes, Dual LED Flash</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>1200 x 9000 Pixels</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Exposure compensation, ISO control</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Continuous Shooting
+High Dynamic Range mode (HDR)
+Macro Mode</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Digital Zoom
+Auto Flash
+Face detection
+Touch to focus</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>4k @ 30 FPS
+Full HD @ 30 FPS</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Audio Zoom</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>4500 mAh</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Li-ion</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Yes, Turbo Power, 30W</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>128 GB
+Best in Class ▾</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>UFS 3.1</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>Dual SIM, GSM+GSM</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>SIM1: Nano, SIM2: Nano</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>5G, 4G, 3G, 2G</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>5G Bands:
+FDD N1 / N3 / N5 / N7 / N8 / N28
+TDD N38 / N41 / N66 / N77 / N78
+4G Bands:
+TD-LTE 2600(band 38) / 2300(band 40) / 2500(band 41) / 2100(band 34) / 1900(band 39) / 3500(band 42) / 3700(band 43)
+FD-LTE 2100(band 1) / 1800(band 3) / 2600(band 7) / 900(band 8) / 700(band 28) / 1900(band 2) / 1700(band 4) / 850(band 5) / 700(band 13) / 700(band 17) / 800(band 20) / 850(band 26)
+3G Bands:
+UMTS 1900 / 2100 / 850 / 900 MHz
+2G Bands:
+GSM 1800 / 1900 / 850 / 900 MHz
+GPRS:
+Available
+EDGE:
+Available</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>5G Bands:
+FDD N1 / N3 / N5 / N7 / N8 / N20 / N28
+TDD N38 / N41 / N66 / N77 / N78
+4G Bands:
+TD-LTE 2600(band 38) / 2300(band 40) / 2500(band 41) / 2100(band 34) / 1900(band 39) / 3500(band 42)
+FD-LTE 2100(band 1) / 1800(band 3) / 2600(band 7) / 900(band 8) / 700(band 28) / 1900(band 2) / 1700(band 4) / 850(band 5) / 700(band 13) / 700(band 17) / 850(band 26)
+3G Bands:
+UMTS 1900 / 2100 / 850 / 900 MHz
+2G Bands:
+GSM 1800 / 1900 / 850 / 900 MHz
+GPRS:
+Available
+EDGE:
+Available</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Yes, Wi-Fi 6 (802.11 a/b/g/n/ac/ax) 5GHz</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>Mobile Hotspot</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>Yes, v5.1</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>Yes with A-GPS, Glonass</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>Mass storage device, USB charging</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>USB Type-C</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>Light sensor, Proximity sensor, Accelerometer, Compass, Gyroscope</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>Head: 1.17 W/kg, Body: 1.20 W/kg</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>Side</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DW3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Processor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rear Camera</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Front Camera</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Display</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Launch Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Operating System</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Chipset</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Graphics</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RAM Type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Display Type</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Screen Size</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Resolution</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Brightness</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Refresh Rate</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect Ratio</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Pixel Density</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Screen to Body Ratio (calculated)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Screen Protection</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Bezel-less display</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Touch Screen</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>HDR 10 / HDR+ support</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Thickness</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Build Material</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Colours</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Waterproof</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ruggedness</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Camera Setup</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Autofocus</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Flash</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Image Resolution</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Shooting Modes</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Camera Features</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Video Recording</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Video Recording Features</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Removable</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Wireless Charging</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Quick Charging</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>USB Type-C</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Memory</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Expandable Memory</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Storage Type</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>SIM Slot(s)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>SIM Size</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Network Support</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>VoLTE</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>SIM 1</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>SIM 2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Wi-Fi</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Wi-Fi Features</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Wi-Fi Calling</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Bluetooth</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>NFC</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>USB Connectivity</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>FM Radio</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Loudspeaker</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Audio Jack</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Audio Features</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Fingerprint Sensor</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Other Sensors</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Custom UI</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>TalkTime</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>User Available Storage</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>USB OTG</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>SAR Value</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Stereo Speakers</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Fingerprint Sensor Position</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Fingerprint Sensor Type</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Colour(s)</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Display Size</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Display Resolution</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Display Features</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Touchscreen</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Clock-speed</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Graphic Processor</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>RAM type</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>RAM speed</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Slots</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Layout</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>HDD Capacity</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>HDD Speed(RPM)</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>HDD type</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Battery Cell</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Battery type</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Power Supply</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Wireless LAN</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Wi-Fi Version</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Bluetooth Version</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Other Networking Options</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>USB 3.0 slots</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>USB 2.0 slots</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>SD Card Reader</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Headphone Jack</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Microphone Jack</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>VGA Port</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary cam(Rear-facing)</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Speakers</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>In-built Microphone</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Microphone Type</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Pointing Device</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Keyboard</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Fingerprint Scanner</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Warranty</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Lockport</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>Sales Package</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>Dimensions (WxDxH)</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>Operating System Type</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>Audio Solution</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>Sound Technologies</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>Screen to Body Ratio (claimed by the brand)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dell Inspiron 15 3542 Netbook (Core i3 4th Gen/4 GB/500 GB/Ubuntu)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Intel Core i3-4005U (4th Gen)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ubuntu</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Intel QM87 Express</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>100 ppi</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>720p HD</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>4 GB</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>laptop</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>15 3542</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>15.6 Inches (39.62 cm)</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>1366 x 768 Pixels</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>HD LED Backlit Display</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>1.7 Ghz</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>Intel HD 4400</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>DDR3</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>1600 Mhz</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>1x4 Gigabyte</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>500 GB</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>5400 RPM</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>SATA</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>4 Cell</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>Li-Ion</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>40 W AC Adapter W</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>802.11 b/g/n</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>Multi-Format SD Media card Reader</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>Dual Speakers</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>Internal Microphone</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>Touchpad with Multi-Touch Gestures Enabled</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>Standard Notebook Keyboard</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>1 Year</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>Laptop, Battery, AC Adapter, User Guide</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HP Pavilion x360 11-ad023TU (2FK64PA) Laptop (Pentium Quad Core/4 GB/1 TB/Windows 10)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Intel Pentium Quad Core N4200</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Windows 10 Home Basic</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>135 ppi</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>19.3 Millimeter thickness</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>1.39 Kg weight (Light-weight)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>HD 720p</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>4 GB</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>8 GB</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>laptop</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>x360 11-ad023TU (2FK64PA)</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>11.6 Inches (29.46 cm)</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>1366 x 768 Pixels</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>Diagonal HD IPS WLED-backlit multitouch-enabled edge-to-edge glass Display</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>1.1 Ghz</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>Intel HD 505</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>1600 Mhz</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>1 x 4 Gigabyte</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>5400 RPM</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>SATA</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>2 Cell</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>Li-Ion</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>37 W AC Adapter W</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>802.11 a/b/g/n/ac</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>Multi-Format SD Media Card Reader</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>Dual Speakers</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>Integrated Digital Microphone</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>HP Imagepad with Multi-touch Gesture support</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>Standard Notebook Keyboard</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>1 Year</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>Laptop, Battery, AC Adapter, User Guide</t>
+        </is>
+      </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>295 x 201.5 x 19.3  mm</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>64-bit</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>Bang &amp; Olufsen Play</t>
+        </is>
+      </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>HP Audio Boost</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>